--- a/CashDrop.xlsx
+++ b/CashDrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="579">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,997 +40,1717 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010506136</t>
-  </si>
-  <si>
-    <t>12010146695</t>
-  </si>
-  <si>
-    <t>12010130133</t>
-  </si>
-  <si>
-    <t>90000024649</t>
-  </si>
-  <si>
-    <t>12010110296</t>
-  </si>
-  <si>
-    <t>12010146523</t>
-  </si>
-  <si>
-    <t>12010110331</t>
-  </si>
-  <si>
-    <t>12010139354</t>
-  </si>
-  <si>
-    <t>90000021057</t>
-  </si>
-  <si>
-    <t>12010139021</t>
-  </si>
-  <si>
-    <t>12010500758</t>
-  </si>
-  <si>
-    <t>12010145408</t>
-  </si>
-  <si>
-    <t>12010506526</t>
-  </si>
-  <si>
-    <t>12010505143</t>
-  </si>
-  <si>
-    <t>12010110295</t>
-  </si>
-  <si>
-    <t>12010110761</t>
-  </si>
-  <si>
-    <t>90000003747</t>
-  </si>
-  <si>
-    <t>12010509077</t>
-  </si>
-  <si>
-    <t>1201500531</t>
-  </si>
-  <si>
-    <t>90000012767</t>
-  </si>
-  <si>
-    <t>12010146646</t>
-  </si>
-  <si>
-    <t>12010139792</t>
-  </si>
-  <si>
-    <t>12010146666</t>
-  </si>
-  <si>
-    <t>90000025157</t>
-  </si>
-  <si>
-    <t>12010503559</t>
-  </si>
-  <si>
-    <t>12010121232</t>
-  </si>
-  <si>
-    <t>12010503328</t>
-  </si>
-  <si>
-    <t>12010144650</t>
-  </si>
-  <si>
-    <t>90000015422</t>
-  </si>
-  <si>
-    <t>90000018983</t>
-  </si>
-  <si>
-    <t>12010145119</t>
-  </si>
-  <si>
-    <t>90000014894</t>
-  </si>
-  <si>
-    <t>12010501298</t>
-  </si>
-  <si>
-    <t>12010508805</t>
-  </si>
-  <si>
-    <t>12010509627</t>
-  </si>
-  <si>
-    <t>1201500942</t>
-  </si>
-  <si>
-    <t>90000020216</t>
-  </si>
-  <si>
-    <t>12010507286</t>
-  </si>
-  <si>
-    <t>12010121215</t>
-  </si>
-  <si>
-    <t>12010511669</t>
-  </si>
-  <si>
-    <t>90000020675</t>
-  </si>
-  <si>
-    <t>12010508192</t>
-  </si>
-  <si>
-    <t>12010120744</t>
-  </si>
-  <si>
-    <t>12010511635</t>
-  </si>
-  <si>
-    <t>12010503991</t>
-  </si>
-  <si>
-    <t>12010110388</t>
-  </si>
-  <si>
-    <t>12010126679</t>
-  </si>
-  <si>
-    <t>12010508624</t>
-  </si>
-  <si>
-    <t>12010508556</t>
-  </si>
-  <si>
-    <t>90000012369</t>
-  </si>
-  <si>
-    <t>1201500456</t>
-  </si>
-  <si>
-    <t>12010503634</t>
-  </si>
-  <si>
-    <t>90000019007</t>
-  </si>
-  <si>
-    <t>12010501088</t>
-  </si>
-  <si>
-    <t>12010508868</t>
-  </si>
-  <si>
-    <t>12010506870</t>
-  </si>
-  <si>
-    <t>12010139797</t>
-  </si>
-  <si>
-    <t>90000010353</t>
-  </si>
-  <si>
-    <t>90000023990</t>
-  </si>
-  <si>
-    <t>90000002274</t>
-  </si>
-  <si>
-    <t>12010508825</t>
-  </si>
-  <si>
-    <t>90000016631</t>
-  </si>
-  <si>
-    <t>12010511132</t>
-  </si>
-  <si>
-    <t>12010145534</t>
-  </si>
-  <si>
-    <t>12010508737</t>
-  </si>
-  <si>
-    <t>12010144656</t>
-  </si>
-  <si>
-    <t>12010509605</t>
-  </si>
-  <si>
-    <t>12010503508</t>
-  </si>
-  <si>
-    <t>12010120994</t>
-  </si>
-  <si>
-    <t>12010139639</t>
-  </si>
-  <si>
-    <t>90000013448</t>
-  </si>
-  <si>
-    <t>Pharma Plus</t>
-  </si>
-  <si>
-    <t>Pharma Land</t>
-  </si>
-  <si>
-    <t>Harun Eye Foundation And Hospi</t>
-  </si>
-  <si>
-    <t>Lavender Drug Corner   2</t>
-  </si>
-  <si>
-    <t>Tivoli Pharmacy</t>
-  </si>
-  <si>
-    <t>Jamuna Pharmacy</t>
-  </si>
-  <si>
-    <t>Lazz Pharma Ltd</t>
-  </si>
-  <si>
-    <t>Suvo Pharmacy</t>
-  </si>
-  <si>
-    <t>New Bangladesh Pharma</t>
-  </si>
-  <si>
-    <t>Rahmania Pharmacy</t>
-  </si>
-  <si>
-    <t>Leed Pharma 3</t>
-  </si>
-  <si>
-    <t>Sharif Medical Hall</t>
-  </si>
-  <si>
-    <t>Jayan Medicine Corner</t>
-  </si>
-  <si>
-    <t>Ismail Drug House</t>
-  </si>
-  <si>
-    <t>Aftab Drug Store</t>
-  </si>
-  <si>
-    <t>Al Shefa Medicine Corner</t>
-  </si>
-  <si>
-    <t>Plus Well Pharma</t>
-  </si>
-  <si>
-    <t>Shin Pharmacy</t>
-  </si>
-  <si>
-    <t>Sheba Medicine Corner</t>
-  </si>
-  <si>
-    <t>Shek Drug House</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t>Aziz Pharmacy</t>
-  </si>
-  <si>
-    <t>Decnt Pharma</t>
-  </si>
-  <si>
-    <t>Mina Pharma</t>
-  </si>
-  <si>
-    <t>Al Mizan Medicine</t>
-  </si>
-  <si>
-    <t>Patwari Pharmacy</t>
-  </si>
-  <si>
-    <t>Abdullah Pharmacy</t>
-  </si>
-  <si>
-    <t>Bhuiya Pharmacy</t>
-  </si>
-  <si>
-    <t>Faisal Medicine Corner</t>
-  </si>
-  <si>
-    <t>Maisha Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarker Pharmacy</t>
-  </si>
-  <si>
-    <t>Shahajalal Pharmacy</t>
-  </si>
-  <si>
-    <t>Monika Pharmacy</t>
-  </si>
-  <si>
-    <t>Ayon Pharmacy</t>
-  </si>
-  <si>
-    <t>Nirob Medicine</t>
-  </si>
-  <si>
-    <t>Decent Pharmacy</t>
-  </si>
-  <si>
-    <t>Popular Pharma</t>
-  </si>
-  <si>
-    <t>Islam Pharmcy</t>
-  </si>
-  <si>
-    <t>Laxmipur Pharmacy</t>
-  </si>
-  <si>
-    <t>THE ISLAM PHARMA</t>
-  </si>
-  <si>
-    <t>Medicine Mart</t>
-  </si>
-  <si>
-    <t>Niramoy Pharmacy</t>
-  </si>
-  <si>
-    <t>Sabbir Medicine Corner 02</t>
-  </si>
-  <si>
-    <t>Lamia Drug House</t>
-  </si>
-  <si>
-    <t>Popular Medical Store</t>
-  </si>
-  <si>
-    <t>Fahmida Medical Hall</t>
-  </si>
-  <si>
-    <t>Hossain Medicare</t>
-  </si>
-  <si>
-    <t>Sunny Pharmacy</t>
-  </si>
-  <si>
-    <t>Khandokar Medicine Corner</t>
-  </si>
-  <si>
-    <t>Mayer Doya Pharmacy</t>
-  </si>
-  <si>
-    <t>Ayaz Pharmacy</t>
-  </si>
-  <si>
-    <t>Sami Medicine Corner</t>
-  </si>
-  <si>
-    <t>Al Amin Pharmacy</t>
-  </si>
-  <si>
-    <t>Rashed Pharmacy</t>
-  </si>
-  <si>
-    <t>Abid Pharmacy</t>
-  </si>
-  <si>
-    <t>Jahanara Pharmacy</t>
-  </si>
-  <si>
-    <t>INNOVIZZ PHARMA</t>
-  </si>
-  <si>
-    <t>Selina Drug House</t>
-  </si>
-  <si>
-    <t>Prokash Pharmacy</t>
-  </si>
-  <si>
-    <t>Satota Pharmacy</t>
-  </si>
-  <si>
-    <t>TASNIM PHARMACY</t>
-  </si>
-  <si>
-    <t>Mizan Pharmacy</t>
-  </si>
-  <si>
-    <t>Norsingdi Pharmacy</t>
-  </si>
-  <si>
-    <t>Bismillah Pharmacy</t>
-  </si>
-  <si>
-    <t>Howlader Medical Center</t>
-  </si>
-  <si>
-    <t>Faridpur Pharma</t>
-  </si>
-  <si>
-    <t>Shovo Medicine Mart</t>
-  </si>
-  <si>
-    <t>Leon Pharmacy</t>
-  </si>
-  <si>
-    <t>Kasem Drug</t>
-  </si>
-  <si>
-    <t>Sayem Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajuk ComplaxUttoraDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 2 A Road 2 BSector 11 Main Road Uttara                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 12 A Road No 5 Dhanmondi Mirpur RoadDhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/A Meher Plaza,Road # 05,Dhanmondi,Dhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Shahabug Biponi BitanShahabugDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMCHDhanmondiDhaka                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 1st Lane KalabaganDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBangla RoadZigatolaDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMCH Gate, Shankor, Dhanmondi , Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAC MarketAzampur Kacha BazarUttora                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 87 Shaheedpark Market Mohammadpur Dhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Hall BazarMohammadpurDhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 2 BH 21Dhaka UddanMohammadpurDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 Aziz Co Operative MarketShahbag Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 Shahabug Biponi BitanShahabugDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 73 Road 03Mohammadia Housing LtdDhaka                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur,Kachabazar,Uttara,Dhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModuBazarDhaka                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 Satarkool RoadHossenbag North BaddaDhaka                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karail,Banani,Dhaka                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khilkhet Uttar ParaUttora                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sel Green Centre Oppt Al Razi28 30 Green RoadDhaka          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhaka Uddan, Main Road,Mohammadpur,Dhaka.                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenary More ZigatalaDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 4 1 Monessor RoadZigatolaDhaka                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fakir Complex Uttar KhanUttara                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co oparative MedicineMarket ShahbagDhaka               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,Holycross Collage Road,Farmgate,Dhaka                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dakkhin Khan Bazar,Dakkhin Khan,Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/GA/1, Shahbag,Dhaka - 1000                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co oparative MarketShahabagDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sec 09Chairman MarketUttara                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karwanbazar                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baridhara DOHS Road No 05TDCL MohakhaliDhaka                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link Road, Middle Badda,Dhaka                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chairman MarketRoad 6 Sector 9Uttora                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 A 3 SalimullahMohammadpur Dhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masterpara BazarKala BaganUttara                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">102/1,Pul Par Bottoly,Zafrabad,Mohammadpur,Dhaka            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS CentreUttara Dhaka                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaskura BazarUttara                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DhourTuragUttara                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamarpara Uttara                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahbag Biponi BitanDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambar Shah BhabonKawran BazarDhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhaka Uddan MohammadpurDhaka                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bamnertek Chow RastaUttara                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/5/B,Tali Office Road,Hazaribag,Dhaka                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 HatirpoolDhaka                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaderabad HousingKatasur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K/A-3/1,House - 197 Bashtola,Khilkhet,Dhaka                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chambur KhanUttaraDhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 New Super Market D BlockNew MarketDhaka 1205             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">176 Hazaribag RoadHazaribagDhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 20 Road 3Mohammadia HousingMohammadpur Dhaka          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House - 20,Road - 13,Sector - 14,Uttara,Dhaka               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">105/A Baroi Khali Rayer Bazar,Dhaka                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,Zigatola,Hazaribag,Dhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HatirpoolDhaka                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/1,Sher-E Bangla Road,Tenary More Dhaka.                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 Gausul Azam MarketNilkhetDhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranavola RoadSector 10Uttara                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84 S A Babri MosjidDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashem Khan Road Pauro Market Rayer BazarDhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShahabagAziz Market                                         </t>
-  </si>
-  <si>
-    <t>House 46 37 Road 1 2 Main Road Mohammadia Housing LTDMohamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habib MarketS 5 Road 9 CUttora Dhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 4 KatasurDhaka                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamarpara,Uttara,Dhaka                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM55                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0117698        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0121028        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-884677     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-893270     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-894116     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-895819     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896618     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896206     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-897269     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896994     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-896962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-897326     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-897042     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-898790     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-898637     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899085     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899147     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899350     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900041     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899775     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899527     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900046     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900064     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900042     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-899606     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901058     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900983     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900843     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900808     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900930     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900489     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900732     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901052     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901134     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900519     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901003     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900420     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900799     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900499     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901042     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900599     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900847     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900675     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901041     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900950     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900424     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901025     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900411     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900625     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900615     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901040     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900620     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901114     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900612     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900382     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900823     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900368     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901173     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900557     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900365     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901083     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901004     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900627     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900634     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901075     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900869     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900753     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900731     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901074     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-901063     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-900430     </t>
-  </si>
-  <si>
-    <t>24 Aug 2011</t>
-  </si>
-  <si>
-    <t>28 Aug 2011</t>
+    <t>51051100058</t>
+  </si>
+  <si>
+    <t>51051001761</t>
+  </si>
+  <si>
+    <t>51051003243</t>
+  </si>
+  <si>
+    <t>51051004016</t>
+  </si>
+  <si>
+    <t>51051102294</t>
+  </si>
+  <si>
+    <t>51052140048</t>
+  </si>
+  <si>
+    <t>90000014421</t>
+  </si>
+  <si>
+    <t>51052139139</t>
+  </si>
+  <si>
+    <t>51052104197</t>
+  </si>
+  <si>
+    <t>51051100328</t>
+  </si>
+  <si>
+    <t>51051001021</t>
+  </si>
+  <si>
+    <t>51051001250</t>
+  </si>
+  <si>
+    <t>51052438672</t>
+  </si>
+  <si>
+    <t>51052139196</t>
+  </si>
+  <si>
+    <t>51051100015</t>
+  </si>
+  <si>
+    <t>51011100056</t>
+  </si>
+  <si>
+    <t>51052104951</t>
+  </si>
+  <si>
+    <t>51052004039</t>
+  </si>
+  <si>
+    <t>51052106042</t>
+  </si>
+  <si>
+    <t>51052100831</t>
+  </si>
+  <si>
+    <t>51052139088</t>
+  </si>
+  <si>
+    <t>51051100276</t>
+  </si>
+  <si>
+    <t>51052150057</t>
+  </si>
+  <si>
+    <t>51052108125</t>
+  </si>
+  <si>
+    <t>51052104532</t>
+  </si>
+  <si>
+    <t>51051100001</t>
+  </si>
+  <si>
+    <t>90000004213</t>
+  </si>
+  <si>
+    <t>51052104235</t>
+  </si>
+  <si>
+    <t>90000006051</t>
+  </si>
+  <si>
+    <t>51052134808</t>
+  </si>
+  <si>
+    <t>90000009959</t>
+  </si>
+  <si>
+    <t>51011136838</t>
+  </si>
+  <si>
+    <t>90000028524</t>
+  </si>
+  <si>
+    <t>51011119670</t>
+  </si>
+  <si>
+    <t>90000034359</t>
+  </si>
+  <si>
+    <t>5101113136</t>
+  </si>
+  <si>
+    <t>51052149228</t>
+  </si>
+  <si>
+    <t>51011117990</t>
+  </si>
+  <si>
+    <t>51052149227</t>
+  </si>
+  <si>
+    <t>90000014338</t>
+  </si>
+  <si>
+    <t>5101117892</t>
+  </si>
+  <si>
+    <t>51052149975</t>
+  </si>
+  <si>
+    <t>51051009052</t>
+  </si>
+  <si>
+    <t>51011112083</t>
+  </si>
+  <si>
+    <t>90000011019</t>
+  </si>
+  <si>
+    <t>51051100053</t>
+  </si>
+  <si>
+    <t>51051001897</t>
+  </si>
+  <si>
+    <t>51052103004</t>
+  </si>
+  <si>
+    <t>51051003694</t>
+  </si>
+  <si>
+    <t>51052438643</t>
+  </si>
+  <si>
+    <t>51011136282</t>
+  </si>
+  <si>
+    <t>51011111353</t>
+  </si>
+  <si>
+    <t>51052149047</t>
+  </si>
+  <si>
+    <t>51011138009</t>
+  </si>
+  <si>
+    <t>51011136478</t>
+  </si>
+  <si>
+    <t>51051003847</t>
+  </si>
+  <si>
+    <t>51011110844</t>
+  </si>
+  <si>
+    <t>90000000858</t>
+  </si>
+  <si>
+    <t>51011110099</t>
+  </si>
+  <si>
+    <t>90000006168</t>
+  </si>
+  <si>
+    <t>51051101220</t>
+  </si>
+  <si>
+    <t>51051000606</t>
+  </si>
+  <si>
+    <t>90000024264</t>
+  </si>
+  <si>
+    <t>51011119854</t>
+  </si>
+  <si>
+    <t>90000012512</t>
+  </si>
+  <si>
+    <t>51011110255</t>
+  </si>
+  <si>
+    <t>51051000188</t>
+  </si>
+  <si>
+    <t>90000004423</t>
+  </si>
+  <si>
+    <t>51051100189</t>
+  </si>
+  <si>
+    <t>51051004112</t>
+  </si>
+  <si>
+    <t>90000026571</t>
+  </si>
+  <si>
+    <t>90000025503</t>
+  </si>
+  <si>
+    <t>51011110243</t>
+  </si>
+  <si>
+    <t>51052139313</t>
+  </si>
+  <si>
+    <t>51051003693</t>
+  </si>
+  <si>
+    <t>51051003691</t>
+  </si>
+  <si>
+    <t>51011100166</t>
+  </si>
+  <si>
+    <t>51051003977</t>
+  </si>
+  <si>
+    <t>51052104537</t>
+  </si>
+  <si>
+    <t>90000003923</t>
+  </si>
+  <si>
+    <t>51051003696</t>
+  </si>
+  <si>
+    <t>51051003963</t>
+  </si>
+  <si>
+    <t>90000023461</t>
+  </si>
+  <si>
+    <t>51051000082</t>
+  </si>
+  <si>
+    <t>51052149421</t>
+  </si>
+  <si>
+    <t>51052104194</t>
+  </si>
+  <si>
+    <t>90000006262</t>
+  </si>
+  <si>
+    <t>51052149966</t>
+  </si>
+  <si>
+    <t>51052108653</t>
+  </si>
+  <si>
+    <t>51051004517</t>
+  </si>
+  <si>
+    <t>90000026456</t>
+  </si>
+  <si>
+    <t>51052149416</t>
+  </si>
+  <si>
+    <t>51011112071</t>
+  </si>
+  <si>
+    <t>51052141145</t>
+  </si>
+  <si>
+    <t>51052100715</t>
+  </si>
+  <si>
+    <t>90000006124</t>
+  </si>
+  <si>
+    <t>90000003890</t>
+  </si>
+  <si>
+    <t>90000003217</t>
+  </si>
+  <si>
+    <t>90000026385</t>
+  </si>
+  <si>
+    <t>51052138869</t>
+  </si>
+  <si>
+    <t>51052141812</t>
+  </si>
+  <si>
+    <t>51052105002</t>
+  </si>
+  <si>
+    <t>90000026386</t>
+  </si>
+  <si>
+    <t>90000024441</t>
+  </si>
+  <si>
+    <t>51052108115</t>
+  </si>
+  <si>
+    <t>51052140021</t>
+  </si>
+  <si>
+    <t>51052103581</t>
+  </si>
+  <si>
+    <t>90000017453</t>
+  </si>
+  <si>
+    <t>51011136255</t>
+  </si>
+  <si>
+    <t>51011118390</t>
+  </si>
+  <si>
+    <t>90000003059</t>
+  </si>
+  <si>
+    <t>51052104039</t>
+  </si>
+  <si>
+    <t>90000008201</t>
+  </si>
+  <si>
+    <t>51051003833</t>
+  </si>
+  <si>
+    <t>90000001071</t>
+  </si>
+  <si>
+    <t>51052103055</t>
+  </si>
+  <si>
+    <t>90000017767</t>
+  </si>
+  <si>
+    <t>51052141985</t>
+  </si>
+  <si>
+    <t>51011137261</t>
+  </si>
+  <si>
+    <t>51051002253</t>
+  </si>
+  <si>
+    <t>51052149390</t>
+  </si>
+  <si>
+    <t>51051001766</t>
+  </si>
+  <si>
+    <t>51051100277</t>
+  </si>
+  <si>
+    <t>51052141791</t>
+  </si>
+  <si>
+    <t>90000033813</t>
+  </si>
+  <si>
+    <t>51052149252</t>
+  </si>
+  <si>
+    <t>51052104014</t>
+  </si>
+  <si>
+    <t>51052149848</t>
+  </si>
+  <si>
+    <t>51051000042</t>
+  </si>
+  <si>
+    <t>51051100168</t>
+  </si>
+  <si>
+    <t>90000034132</t>
+  </si>
+  <si>
+    <t>51052104268</t>
+  </si>
+  <si>
+    <t>51051004520</t>
+  </si>
+  <si>
+    <t>90000001732</t>
+  </si>
+  <si>
+    <t>New Medical Hall</t>
+  </si>
+  <si>
+    <t>Aushad Biponi</t>
+  </si>
+  <si>
+    <t>Moon Medicine</t>
+  </si>
+  <si>
+    <t>Diba Ratri Medical Hall</t>
+  </si>
+  <si>
+    <t>Life Medicine</t>
+  </si>
+  <si>
+    <t>Sikder Medical Hall</t>
+  </si>
+  <si>
+    <t>Abid Medical Hall</t>
+  </si>
+  <si>
+    <t>Musfique Medical Hall</t>
+  </si>
+  <si>
+    <t>Sonali Medical Hall</t>
+  </si>
+  <si>
+    <t>Zaman Medical Hall</t>
+  </si>
+  <si>
+    <t>Medicus Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Riaz Moni Medicine House</t>
+  </si>
+  <si>
+    <t>Seba Medical Hall</t>
+  </si>
+  <si>
+    <t>Azad Medical Hall</t>
+  </si>
+  <si>
+    <t>Agrani Medical Hall</t>
+  </si>
+  <si>
+    <t>Noor A Madina Pharmacy</t>
+  </si>
+  <si>
+    <t>Rana Drug House</t>
+  </si>
+  <si>
+    <t>R K Medical Hall</t>
+  </si>
+  <si>
+    <t>Naz Pharmachy</t>
+  </si>
+  <si>
+    <t>New Medicine Point</t>
+  </si>
+  <si>
+    <t>Regal Pharmacy</t>
+  </si>
+  <si>
+    <t>Musa Soad Medical Hall</t>
+  </si>
+  <si>
+    <t>Chandni Medical Hall</t>
+  </si>
+  <si>
+    <t>Fatema Medical Hall</t>
+  </si>
+  <si>
+    <t>Jahanoor Medicine Suppliers</t>
+  </si>
+  <si>
+    <t>Santu Traders Pharmacy</t>
+  </si>
+  <si>
+    <t>Seba Drug House</t>
+  </si>
+  <si>
+    <t>Jannat Medical Hall</t>
+  </si>
+  <si>
+    <t>Manirs Drug House</t>
+  </si>
+  <si>
+    <t>Kalpona Drug House</t>
+  </si>
+  <si>
+    <t>Aparna Drug House Dr Tapon</t>
+  </si>
+  <si>
+    <t>Modern Pharmacy</t>
+  </si>
+  <si>
+    <t>New Bajetpur Pharmacy</t>
+  </si>
+  <si>
+    <t>Transcom Beverage Limited</t>
+  </si>
+  <si>
+    <t>Maa Durga Medical Hall</t>
+  </si>
+  <si>
+    <t>Masum Medical Hall</t>
+  </si>
+  <si>
+    <t>Rekha Pharmacy</t>
+  </si>
+  <si>
+    <t>Molla Pharmacy</t>
+  </si>
+  <si>
+    <t>Avi Medical Hall</t>
+  </si>
+  <si>
+    <t>Bawaly Pharmacy</t>
+  </si>
+  <si>
+    <t>Modina Medical Hall</t>
+  </si>
+  <si>
+    <t>Health Keyar Pharmacy</t>
+  </si>
+  <si>
+    <t>Padma Medicine Cornar</t>
+  </si>
+  <si>
+    <t>Howlader Pharmacy</t>
+  </si>
+  <si>
+    <t>Karmakar Pharmacy</t>
+  </si>
+  <si>
+    <t>Apu Brothers Medical Hall</t>
+  </si>
+  <si>
+    <t>Roy Pharmachy</t>
+  </si>
+  <si>
+    <t>Tapan Medical Hall</t>
+  </si>
+  <si>
+    <t>Anjoli Medical Hall</t>
+  </si>
+  <si>
+    <t>Aroggolay Pharmacy</t>
+  </si>
+  <si>
+    <t>Padma Aushadhaloy</t>
+  </si>
+  <si>
+    <t>Modern Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Belal Pharmicy</t>
+  </si>
+  <si>
+    <t>Aziz Madical Hall</t>
+  </si>
+  <si>
+    <t>Padma M Hall</t>
+  </si>
+  <si>
+    <t>Joya Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Setara Medical Hall</t>
+  </si>
+  <si>
+    <t>Sapnil Medical Hall</t>
+  </si>
+  <si>
+    <t>New Popular Medical Hall</t>
+  </si>
+  <si>
+    <t>Padma Medical Hall</t>
+  </si>
+  <si>
+    <t>Janani Pharma</t>
+  </si>
+  <si>
+    <t>Sufia Med Hall</t>
+  </si>
+  <si>
+    <t>Moon Star Medical Hall</t>
+  </si>
+  <si>
+    <t>Rudra Medical Hall</t>
+  </si>
+  <si>
+    <t>Zakir Medical Hall</t>
+  </si>
+  <si>
+    <t>Ripa Madical Hall</t>
+  </si>
+  <si>
+    <t>Amena Medical Hall</t>
+  </si>
+  <si>
+    <t>Jannatun Drug House</t>
+  </si>
+  <si>
+    <t>Shandhani Drug House</t>
+  </si>
+  <si>
+    <t>Juyena Medical Hall</t>
+  </si>
+  <si>
+    <t>Hayder Medical Hall</t>
+  </si>
+  <si>
+    <t>Sarmen Medical Hall</t>
+  </si>
+  <si>
+    <t>Bina Drug House</t>
+  </si>
+  <si>
+    <t>Ashok Medical Hall</t>
+  </si>
+  <si>
+    <t>Tamanna Medical Hall</t>
+  </si>
+  <si>
+    <t>Rahman Medical Hall</t>
+  </si>
+  <si>
+    <t>Pijush Medical Hall</t>
+  </si>
+  <si>
+    <t>Ferdous Medical Hall</t>
+  </si>
+  <si>
+    <t>Khadiza Medical Hall</t>
+  </si>
+  <si>
+    <t>Bismilla Pharmacy</t>
+  </si>
+  <si>
+    <t>Shovon Medical Hall</t>
+  </si>
+  <si>
+    <t>Asia Medical Hall</t>
+  </si>
+  <si>
+    <t>Asad Medical Hall</t>
+  </si>
+  <si>
+    <t>Medicine House</t>
+  </si>
+  <si>
+    <t>Rokeya Medical Hall</t>
+  </si>
+  <si>
+    <t>Himlata Medical Hall</t>
+  </si>
+  <si>
+    <t>Doli Drug House</t>
+  </si>
+  <si>
+    <t>Liton Medical Hall</t>
+  </si>
+  <si>
+    <t>Santo Medical hall</t>
+  </si>
+  <si>
+    <t>Aeyasha Medical Hall</t>
+  </si>
+  <si>
+    <t>Chowdhury Medical Hall</t>
+  </si>
+  <si>
+    <t>Sopon Medical Hall</t>
+  </si>
+  <si>
+    <t>Ikra Medical Hall</t>
+  </si>
+  <si>
+    <t>Trisa Medical Hall</t>
+  </si>
+  <si>
+    <t>Bismilla Medical Hall</t>
+  </si>
+  <si>
+    <t>H K Hawlader Medical Hall</t>
+  </si>
+  <si>
+    <t>Satu Medical Hall</t>
+  </si>
+  <si>
+    <t>Rupkatha Drug House</t>
+  </si>
+  <si>
+    <t>Feroza Medical Hall</t>
+  </si>
+  <si>
+    <t>Sharif Madical Hall</t>
+  </si>
+  <si>
+    <t>Sohan Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Saha Pharmacy</t>
+  </si>
+  <si>
+    <t>Kolorab Medicine Corner</t>
+  </si>
+  <si>
+    <t>Aroggo Pharmacy</t>
+  </si>
+  <si>
+    <t>Bappi Medical Hall</t>
+  </si>
+  <si>
+    <t>Brothars Medical Hall</t>
+  </si>
+  <si>
+    <t>Takawa Medicine Corner</t>
+  </si>
+  <si>
+    <t>Maa Manasha Pharmacy</t>
+  </si>
+  <si>
+    <t>Tanu Medical Hall</t>
+  </si>
+  <si>
+    <t>Talukder Medicine</t>
+  </si>
+  <si>
+    <t>Hafiz Medical Hall</t>
+  </si>
+  <si>
+    <t>Islam Medicine Mart</t>
+  </si>
+  <si>
+    <t>Mim Medicine Corner</t>
+  </si>
+  <si>
+    <t>Kazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Noman Medical Hall</t>
+  </si>
+  <si>
+    <t>Amin Pharmacy</t>
+  </si>
+  <si>
+    <t>Mayer Doa Medical Hall</t>
+  </si>
+  <si>
+    <t>Taslima Medical Hall</t>
+  </si>
+  <si>
+    <t>Unique Pharmay</t>
+  </si>
+  <si>
+    <t>Dr Dilip Roy Pharmacy</t>
+  </si>
+  <si>
+    <t>Ahad Medical Hall</t>
+  </si>
+  <si>
+    <t>Rifa Madical Hall</t>
+  </si>
+  <si>
+    <t>Hanif Dental Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Barisal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miharhat Swarupkhati                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miarhat Nesarabad Pirojpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inderhat, Swarupkathi                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indurhat Bazar Swarupkathi Pirojpur                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indurhat Nesarabad Pirojpur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miarhat Bazar Swarupkathi Pirojpur                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upazela Gate Gouranadi                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital gate Madaripur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charfashion Bhola                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batargali Barisal                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Bhola                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 Sadar Road Barisal                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gournadi Busstand                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guachittra Banaripara Barisal                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takerhat Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamura Wazirpur                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takerhat Bazar, Rajoir, Madaripur                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalirpar Bus Stand                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaguria Bazar,Mehendigonj.                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beside Exim Bank Tekerhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisik Shilpo Nagory, Kawnia, Barishal                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shasikar Kalkini                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aripara Yousufpur Takerhat                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infront of General Hospital Takerhat                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aripara Yousuf pur Takerhat                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takerhat,Rajoir,Madaripur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beside of Nandi Pharmacy Tekerhat                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shekarmongal Kalkini Madaripur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowmohoni Bazer Monpura                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takerhat Madaripur                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komlapur,Dasar Kalkini                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Shukdeb Kundo Gouranadi                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasnabad Gouranadi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomohani Bazar Manpura Bhola                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koli Gram Kheya Ghat Takerhat                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Madaripur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Kalkini                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalir Bazer Kadom Bari Takerhat                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaligong Bazar Kalkini Madari pur                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarterhat Patherhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghatok Char Mostafapur                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ullabari Kadombari                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajoir Madaripur                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposit of Public Library, Madaripur                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katpotty Road, Barishal                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shwa Road Barisal                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sador Road, Barishal                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road, Barisal                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalmohan Bhola                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katpotty, Barishal                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla Bazar Manpura Charfashion                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alom Bazar,Manpura.                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostofapur Bus Stand                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fakir Haat Monpura Bhola                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazirhat Manpura Bhola                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puran Bazar Madaripur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla Bazer Bhola                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazirhat Manpura                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazirhat Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramnewaj Manpura Bhola                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla Bazar Manpura Bhola                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janata Bazar, Monpura                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baukathi Bazar Jhalokathi                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Hat Manpura Charfashion                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karalia Bazar Manpura Chairfashion                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate,Manpura                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faraji Bazar Lalmohan Bhola                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koralia Manpura Bhola                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirajgonj Bazar,Monpura.                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taltala Bhola                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopalpur                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollabari bazer Agail jhara Barisal                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masterhat                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramnewaj Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla Bazar,Monpura.                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janata Bazar Manpura Bhola                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdury Bazar Manpura Chairfashion                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janata Bazar,Monpura.                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalkini Road,Bhurghata.                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramnewas Manpura                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fakir Hat Manpura Bhola                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla Bazar Manpura                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla Bazar, Monpura.                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fultala Bazar Tekerhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttarbazar                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goila Agailjhara Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate,Kalkini                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdhury Bazar Manpura                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alam Bazar                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batra Bazar Agaljhara                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takerhat North Side, Takerhat                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanzapur Ghoser Hat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amgran Rajoir                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katpatty Barisal                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katpotty Barisal                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabogram Road,Chowmatha.                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge Road Muladi Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daberkul Ujirpur Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Muladi Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patarhat Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahmanshut  Mehendigonj                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampo Stand Ulania Paterhat                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakergong Sadar                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INST                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB45                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM45                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB66                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-409843     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-418011     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-419390     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-420469     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-426074     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-427647     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-435776     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-435777     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-435898     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-440810     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-440898     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-445895     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-445952     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-445984     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-446795     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-449713     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-450119     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-451022     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-451137     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-451302     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-456517     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-456845     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-457736     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-458250     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-458955     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-460808     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-461638     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-461704     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-471488     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-471361     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-472468     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-473446     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-475297     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-475279     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-475334     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-476477     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-476274     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-476102     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-475750     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-477587     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-478161     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-479381     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-479098     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-479037     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-479691     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-480314     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-480160     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-480864     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-480888     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-480773     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481162     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481816     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481590     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481815     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481614     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481439     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481539     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481388     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481665     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481653     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481805     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481811     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481906     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481939     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-481887     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482965     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482243     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482644     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482782     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482172     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482089     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482156     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482219     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482566     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482645     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482368     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482864     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482503     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482934     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482357     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482414     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482476     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482970     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482289     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482253     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482747     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482255     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482260     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482886     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482660     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482261     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482316     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482267     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482264     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482765     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482432     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482402     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482312     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482798     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482068     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482294     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482263     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482429     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482841     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482257     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482489     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482826     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482377     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482299     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482278     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482715     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482130     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482461     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482887     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482896     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482655     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482193     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482718     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482354     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482926     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483042     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483031     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483030     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482998     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483051     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483041     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483255     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-482983     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483318     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483213     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483303     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483187     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483002     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483314     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483050     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483104     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-483137     </t>
+  </si>
+  <si>
+    <t>05 Dec 2019</t>
+  </si>
+  <si>
+    <t>25 Dec 2019</t>
+  </si>
+  <si>
+    <t>30 Dec 2019</t>
+  </si>
+  <si>
+    <t>01 Jan 2020</t>
+  </si>
+  <si>
+    <t>13 Jan 2020</t>
+  </si>
+  <si>
+    <t>15 Jan 2020</t>
+  </si>
+  <si>
+    <t>01 Feb 2020</t>
+  </si>
+  <si>
+    <t>02 Feb 2020</t>
+  </si>
+  <si>
+    <t>12 Feb 2020</t>
+  </si>
+  <si>
+    <t>22 Feb 2020</t>
   </si>
   <si>
     <t>24 Feb 2020</t>
   </si>
   <si>
-    <t>06 Mar 2020</t>
-  </si>
-  <si>
-    <t>08 Mar 2020</t>
-  </si>
-  <si>
-    <t>09 Mar 2020</t>
-  </si>
-  <si>
-    <t>10 Mar 2020</t>
-  </si>
-  <si>
-    <t>11 Mar 2020</t>
-  </si>
-  <si>
-    <t>12 Mar 2020</t>
-  </si>
-  <si>
-    <t>13 Mar 2020</t>
-  </si>
-  <si>
-    <t>14 Mar 2020</t>
+    <t>29 Feb 2020</t>
+  </si>
+  <si>
+    <t>02 Mar 2020</t>
+  </si>
+  <si>
+    <t>04 Mar 2020</t>
   </si>
   <si>
     <t>15 Mar 2020</t>
+  </si>
+  <si>
+    <t>16 Mar 2020</t>
+  </si>
+  <si>
+    <t>17 Mar 2020</t>
+  </si>
+  <si>
+    <t>18 Mar 2020</t>
+  </si>
+  <si>
+    <t>19 Mar 2020</t>
+  </si>
+  <si>
+    <t>22 Mar 2020</t>
+  </si>
+  <si>
+    <t>23 Mar 2020</t>
+  </si>
+  <si>
+    <t>06 Apr 2020</t>
+  </si>
+  <si>
+    <t>08 Apr 2020</t>
+  </si>
+  <si>
+    <t>10 Apr 2020</t>
+  </si>
+  <si>
+    <t>13 Apr 2020</t>
+  </si>
+  <si>
+    <t>14 Apr 2020</t>
+  </si>
+  <si>
+    <t>15 Apr 2020</t>
+  </si>
+  <si>
+    <t>18 Apr 2020</t>
+  </si>
+  <si>
+    <t>20 Apr 2020</t>
+  </si>
+  <si>
+    <t>21 Apr 2020</t>
+  </si>
+  <si>
+    <t>22 Apr 2020</t>
+  </si>
+  <si>
+    <t>23 Apr 2020</t>
+  </si>
+  <si>
+    <t>24 Apr 2020</t>
+  </si>
+  <si>
+    <t>25 Apr 2020</t>
+  </si>
+  <si>
+    <t>26 Apr 2020</t>
+  </si>
+  <si>
+    <t>27 Apr 2020</t>
+  </si>
+  <si>
+    <t>28 Apr 2020</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,25 +2160,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2">
         <v>149</v>
       </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2">
-        <v>3130</v>
-      </c>
       <c r="I2">
-        <v>8081.55</v>
+        <v>8792.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1469,25 +2189,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>543</v>
       </c>
       <c r="H3">
-        <v>3126</v>
+        <v>129</v>
       </c>
       <c r="I3">
-        <v>10895.59</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1498,25 +2218,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>406</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
+        <v>544</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I4">
-        <v>21561.73</v>
+        <v>5968.75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1527,25 +2247,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>330</v>
+        <v>545</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="I5">
-        <v>765.0700000000001</v>
+        <v>9460.440000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1556,25 +2276,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>408</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
+        <v>546</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I6">
-        <v>3406.69</v>
+        <v>3959.58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1585,25 +2305,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>547</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="I7">
-        <v>4982.71</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1614,25 +2334,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="G8" t="s">
-        <v>333</v>
+        <v>548</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>15000.08</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1643,25 +2363,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="G9" t="s">
-        <v>333</v>
+        <v>548</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I9">
-        <v>418.03</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1672,25 +2392,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>549</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="I10">
-        <v>8031.66</v>
+        <v>1090.52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1701,25 +2421,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>264</v>
+        <v>413</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>550</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>5418.6</v>
+        <v>11698.17</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1730,25 +2450,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>550</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I12">
-        <v>3490.84</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1759,25 +2479,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>415</v>
       </c>
       <c r="G13" t="s">
-        <v>334</v>
+        <v>551</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>1745.42</v>
+        <v>5792.16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1788,25 +2508,25 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>551</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>1221.57</v>
+        <v>1029.64</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1814,28 +2534,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>417</v>
       </c>
       <c r="G15" t="s">
-        <v>335</v>
+        <v>551</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>226.06</v>
+        <v>591.4299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1843,28 +2563,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>418</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="I16">
-        <v>191.37</v>
+        <v>3664.74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1872,28 +2592,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="F17" t="s">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
+        <v>553</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I17">
-        <v>2037.87</v>
+        <v>6590.54</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1901,28 +2621,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>420</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I18">
-        <v>1568.84</v>
+        <v>1075.15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1930,28 +2650,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>373</v>
       </c>
       <c r="F19" t="s">
-        <v>272</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>555</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I19">
-        <v>589.64</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1959,28 +2679,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="G20" t="s">
-        <v>337</v>
+        <v>555</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I20">
-        <v>14295.24</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1988,28 +2708,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
-        <v>274</v>
+        <v>423</v>
       </c>
       <c r="G21" t="s">
-        <v>337</v>
+        <v>555</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I21">
-        <v>7649.75</v>
+        <v>3491.33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2017,28 +2737,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>424</v>
       </c>
       <c r="G22" t="s">
-        <v>337</v>
+        <v>556</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I22">
-        <v>3700</v>
+        <v>1842.77</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2046,28 +2766,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="E23" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="F23" t="s">
-        <v>276</v>
+        <v>425</v>
       </c>
       <c r="G23" t="s">
-        <v>337</v>
+        <v>557</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I23">
-        <v>1929.72</v>
+        <v>1816.57</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2075,28 +2795,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>426</v>
       </c>
       <c r="G24" t="s">
-        <v>337</v>
+        <v>558</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I24">
-        <v>1320.03</v>
+        <v>1408.28</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2107,25 +2827,25 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>427</v>
       </c>
       <c r="G25" t="s">
-        <v>337</v>
+        <v>559</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I25">
-        <v>200.46</v>
+        <v>4340.02</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2136,25 +2856,25 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>560</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="I26">
-        <v>90</v>
+        <v>4000.31</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2162,28 +2882,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>429</v>
       </c>
       <c r="G27" t="s">
-        <v>338</v>
+        <v>561</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I27">
-        <v>13245.48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2191,28 +2911,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>375</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="G28" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I28">
-        <v>10923.4</v>
+        <v>2394.51</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2220,28 +2940,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="G29" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I29">
-        <v>7819.46</v>
+        <v>2387.42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2249,28 +2969,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>432</v>
       </c>
       <c r="G30" t="s">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I30">
-        <v>7700</v>
+        <v>2500.06</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2278,28 +2998,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I31">
-        <v>6012.25</v>
+        <v>1256.49</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2307,28 +3027,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>434</v>
       </c>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I32">
-        <v>5267.06</v>
+        <v>8073.78</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2336,28 +3056,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>435</v>
       </c>
       <c r="G33" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I33">
-        <v>5133.26</v>
+        <v>918.71</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2365,28 +3085,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>436</v>
       </c>
       <c r="G34" t="s">
-        <v>338</v>
+        <v>566</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I34">
-        <v>4780</v>
+        <v>16971.19</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2394,28 +3114,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="E35" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="G35" t="s">
-        <v>338</v>
+        <v>566</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I35">
-        <v>4700</v>
+        <v>4270.64</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2423,28 +3143,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="G36" t="s">
-        <v>338</v>
+        <v>567</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>4400</v>
+        <v>1500.36</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2452,28 +3172,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>439</v>
       </c>
       <c r="G37" t="s">
-        <v>338</v>
+        <v>568</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I37">
-        <v>4400</v>
+        <v>31459.62</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2481,28 +3201,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>387</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>440</v>
       </c>
       <c r="G38" t="s">
-        <v>338</v>
+        <v>568</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>4079.25</v>
+        <v>4188.02</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2510,28 +3230,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="G39" t="s">
-        <v>338</v>
+        <v>568</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I39">
-        <v>3957.09</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2539,28 +3259,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>442</v>
       </c>
       <c r="G40" t="s">
-        <v>338</v>
+        <v>568</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I40">
-        <v>3649.87</v>
+        <v>500.92</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2568,28 +3288,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
-        <v>229</v>
+        <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>443</v>
       </c>
       <c r="G41" t="s">
-        <v>338</v>
+        <v>569</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I41">
-        <v>3497.66</v>
+        <v>5900.99</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2597,28 +3317,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>444</v>
       </c>
       <c r="G42" t="s">
-        <v>338</v>
+        <v>569</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I42">
-        <v>3346.06</v>
+        <v>2041.8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2626,28 +3346,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>445</v>
       </c>
       <c r="G43" t="s">
-        <v>338</v>
+        <v>570</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I43">
-        <v>3249.03</v>
+        <v>16086.11</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2655,28 +3375,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="F44" t="s">
-        <v>297</v>
+        <v>446</v>
       </c>
       <c r="G44" t="s">
-        <v>338</v>
+        <v>570</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I44">
-        <v>2931.84</v>
+        <v>12229.12</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2684,28 +3404,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>389</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="G45" t="s">
-        <v>338</v>
+        <v>570</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I45">
-        <v>2926.56</v>
+        <v>2499.96</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2713,28 +3433,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="F46" t="s">
-        <v>299</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>338</v>
+        <v>571</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I46">
-        <v>2533.52</v>
+        <v>1337.72</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2742,28 +3462,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="F47" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>572</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I47">
-        <v>2333.28</v>
+        <v>38822.01</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2771,28 +3491,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>388</v>
       </c>
       <c r="F48" t="s">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="G48" t="s">
-        <v>338</v>
+        <v>572</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>2205.84</v>
+        <v>862.47</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2800,28 +3520,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>392</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="G49" t="s">
-        <v>338</v>
+        <v>573</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I49">
-        <v>2050.52</v>
+        <v>11356.97</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2829,25 +3549,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>393</v>
       </c>
       <c r="F50" t="s">
-        <v>303</v>
+        <v>452</v>
       </c>
       <c r="G50" t="s">
-        <v>338</v>
+        <v>573</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I50">
         <v>2000</v>
@@ -2858,28 +3578,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="E51" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>573</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I51">
-        <v>1840</v>
+        <v>1710.24</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2887,28 +3607,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="E52" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="F52" t="s">
-        <v>305</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
-        <v>338</v>
+        <v>574</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I52">
-        <v>1832.36</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2916,28 +3636,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>1709</v>
+        <v>9667.360000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2945,28 +3665,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I54">
-        <v>1577.89</v>
+        <v>7770.18</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2974,28 +3694,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="E55" t="s">
-        <v>236</v>
+        <v>391</v>
       </c>
       <c r="F55" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>1542.73</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3003,28 +3723,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>389</v>
       </c>
       <c r="F56" t="s">
-        <v>309</v>
+        <v>458</v>
       </c>
       <c r="G56" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I56">
-        <v>1437.98</v>
+        <v>2094.48</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3032,28 +3752,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="F57" t="s">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>1400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3061,28 +3781,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="F58" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="G58" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>1320.05</v>
+        <v>1868.29</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3090,28 +3810,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="F59" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="G59" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I59">
-        <v>1221.58</v>
+        <v>1864.3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3119,28 +3839,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="E60" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="F60" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="G60" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>1204.12</v>
+        <v>1785.68</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3148,28 +3868,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>383</v>
       </c>
       <c r="F61" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="G61" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I61">
-        <v>1122.96</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3177,28 +3897,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>383</v>
       </c>
       <c r="F62" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="G62" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I62">
-        <v>1000.14</v>
+        <v>769.5700000000001</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3206,28 +3926,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>377</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="G63" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I63">
-        <v>1000</v>
+        <v>264.01</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3235,28 +3955,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="G64" t="s">
-        <v>338</v>
+        <v>576</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I64">
-        <v>1000</v>
+        <v>1403.15</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3264,28 +3984,28 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="F65" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>576</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>958.14</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3293,28 +4013,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="G66" t="s">
-        <v>338</v>
+        <v>576</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66">
-        <v>877.42</v>
+        <v>198.28</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3322,28 +4042,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>386</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>469</v>
       </c>
       <c r="G67" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>748.1</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3351,28 +4071,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="G68" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>704.05</v>
+        <v>23256.78</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3380,28 +4100,28 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="E69" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>471</v>
       </c>
       <c r="G69" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>660.03</v>
+        <v>12770.98</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3409,28 +4129,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="F70" t="s">
-        <v>323</v>
+        <v>472</v>
       </c>
       <c r="G70" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>545.64</v>
+        <v>9989.32</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3438,28 +4158,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="E71" t="s">
-        <v>251</v>
+        <v>374</v>
       </c>
       <c r="F71" t="s">
-        <v>324</v>
+        <v>473</v>
       </c>
       <c r="G71" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>500.69</v>
+        <v>9836.530000000001</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3467,28 +4187,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="G72" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>500</v>
+        <v>5554.75</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3496,28 +4216,1942 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>319</v>
+      </c>
+      <c r="E73" t="s">
+        <v>390</v>
+      </c>
+      <c r="F73" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" t="s">
+        <v>577</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>4859.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="C73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" t="s">
+        <v>320</v>
+      </c>
+      <c r="E74" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" t="s">
+        <v>476</v>
+      </c>
+      <c r="G74" t="s">
+        <v>577</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>4562.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>321</v>
+      </c>
+      <c r="E75" t="s">
+        <v>394</v>
+      </c>
+      <c r="F75" t="s">
+        <v>477</v>
+      </c>
+      <c r="G75" t="s">
+        <v>577</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" t="s">
+        <v>394</v>
+      </c>
+      <c r="F76" t="s">
+        <v>478</v>
+      </c>
+      <c r="G76" t="s">
+        <v>577</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>4105.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" t="s">
+        <v>479</v>
+      </c>
+      <c r="G77" t="s">
+        <v>577</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>3811.14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>323</v>
+      </c>
+      <c r="E78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" t="s">
+        <v>480</v>
+      </c>
+      <c r="G78" t="s">
+        <v>577</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>3696.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" t="s">
+        <v>390</v>
+      </c>
+      <c r="F79" t="s">
+        <v>481</v>
+      </c>
+      <c r="G79" t="s">
+        <v>577</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>3273.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" t="s">
+        <v>394</v>
+      </c>
+      <c r="F80" t="s">
+        <v>482</v>
+      </c>
+      <c r="G80" t="s">
+        <v>577</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" t="s">
+        <v>325</v>
+      </c>
+      <c r="E81" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" t="s">
+        <v>483</v>
+      </c>
+      <c r="G81" t="s">
+        <v>577</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>2887.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
         <v>218</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" t="s">
+        <v>484</v>
+      </c>
+      <c r="G82" t="s">
+        <v>577</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>2719.77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" t="s">
+        <v>390</v>
+      </c>
+      <c r="F83" t="s">
+        <v>485</v>
+      </c>
+      <c r="G83" t="s">
+        <v>577</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>2277.41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" t="s">
+        <v>390</v>
+      </c>
+      <c r="F84" t="s">
+        <v>486</v>
+      </c>
+      <c r="G84" t="s">
+        <v>577</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>2137.81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" t="s">
+        <v>329</v>
+      </c>
+      <c r="E85" t="s">
+        <v>390</v>
+      </c>
+      <c r="F85" t="s">
+        <v>487</v>
+      </c>
+      <c r="G85" t="s">
+        <v>577</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>2059.32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" t="s">
+        <v>330</v>
+      </c>
+      <c r="E86" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" t="s">
+        <v>488</v>
+      </c>
+      <c r="G86" t="s">
+        <v>577</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>1992.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" t="s">
+        <v>398</v>
+      </c>
+      <c r="F87" t="s">
+        <v>489</v>
+      </c>
+      <c r="G87" t="s">
+        <v>577</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>1918.88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" t="s">
+        <v>332</v>
+      </c>
+      <c r="E88" t="s">
+        <v>390</v>
+      </c>
+      <c r="F88" t="s">
+        <v>490</v>
+      </c>
+      <c r="G88" t="s">
+        <v>577</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>1795.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" t="s">
+        <v>333</v>
+      </c>
+      <c r="E89" t="s">
+        <v>390</v>
+      </c>
+      <c r="F89" t="s">
+        <v>491</v>
+      </c>
+      <c r="G89" t="s">
+        <v>577</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>1760.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" t="s">
+        <v>334</v>
+      </c>
+      <c r="E90" t="s">
+        <v>390</v>
+      </c>
+      <c r="F90" t="s">
+        <v>492</v>
+      </c>
+      <c r="G90" t="s">
+        <v>577</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>1758.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" t="s">
+        <v>493</v>
+      </c>
+      <c r="G91" t="s">
+        <v>577</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>1599.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" t="s">
+        <v>336</v>
+      </c>
+      <c r="E92" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92" t="s">
+        <v>494</v>
+      </c>
+      <c r="G92" t="s">
+        <v>577</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>1496.13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" t="s">
+        <v>390</v>
+      </c>
+      <c r="F93" t="s">
+        <v>495</v>
+      </c>
+      <c r="G93" t="s">
+        <v>577</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>1452.13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" t="s">
+        <v>337</v>
+      </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>496</v>
+      </c>
+      <c r="G94" t="s">
+        <v>577</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>1447.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" t="s">
+        <v>390</v>
+      </c>
+      <c r="F95" t="s">
+        <v>497</v>
+      </c>
+      <c r="G95" t="s">
+        <v>577</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>1404.82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" t="s">
+        <v>388</v>
+      </c>
+      <c r="F96" t="s">
+        <v>498</v>
+      </c>
+      <c r="G96" t="s">
+        <v>577</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>1300.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" t="s">
+        <v>340</v>
+      </c>
+      <c r="E97" t="s">
+        <v>393</v>
+      </c>
+      <c r="F97" t="s">
+        <v>499</v>
+      </c>
+      <c r="G97" t="s">
+        <v>577</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1246.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" t="s">
+        <v>326</v>
+      </c>
+      <c r="E98" t="s">
+        <v>390</v>
+      </c>
+      <c r="F98" t="s">
+        <v>500</v>
+      </c>
+      <c r="G98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>1221.62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" t="s">
+        <v>341</v>
+      </c>
+      <c r="E99" t="s">
+        <v>390</v>
+      </c>
+      <c r="F99" t="s">
+        <v>501</v>
+      </c>
+      <c r="G99" t="s">
+        <v>577</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>1221.61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" t="s">
+        <v>342</v>
+      </c>
+      <c r="E100" t="s">
+        <v>390</v>
+      </c>
+      <c r="F100" t="s">
+        <v>502</v>
+      </c>
+      <c r="G100" t="s">
+        <v>577</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>1221.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" t="s">
+        <v>342</v>
+      </c>
+      <c r="E101" t="s">
+        <v>390</v>
+      </c>
+      <c r="F101" t="s">
+        <v>503</v>
+      </c>
+      <c r="G101" t="s">
+        <v>577</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>1169.24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" t="s">
+        <v>343</v>
+      </c>
+      <c r="E102" t="s">
+        <v>390</v>
+      </c>
+      <c r="F102" t="s">
+        <v>504</v>
+      </c>
+      <c r="G102" t="s">
+        <v>577</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>1167.51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" t="s">
+        <v>344</v>
+      </c>
+      <c r="E103" t="s">
+        <v>390</v>
+      </c>
+      <c r="F103" t="s">
+        <v>505</v>
+      </c>
+      <c r="G103" t="s">
+        <v>577</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>1166.01</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" t="s">
+        <v>390</v>
+      </c>
+      <c r="F104" t="s">
+        <v>506</v>
+      </c>
+      <c r="G104" t="s">
+        <v>577</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>1144.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s">
+        <v>345</v>
+      </c>
+      <c r="E105" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" t="s">
+        <v>507</v>
+      </c>
+      <c r="G105" t="s">
+        <v>577</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>1144.09</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" t="s">
+        <v>346</v>
+      </c>
+      <c r="E106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F106" t="s">
+        <v>508</v>
+      </c>
+      <c r="G106" t="s">
+        <v>577</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>1125.95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" t="s">
+        <v>347</v>
+      </c>
+      <c r="E107" t="s">
+        <v>395</v>
+      </c>
+      <c r="F107" t="s">
+        <v>509</v>
+      </c>
+      <c r="G107" t="s">
+        <v>577</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>1119.43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" t="s">
+        <v>348</v>
+      </c>
+      <c r="E108" t="s">
+        <v>390</v>
+      </c>
+      <c r="F108" t="s">
+        <v>510</v>
+      </c>
+      <c r="G108" t="s">
+        <v>577</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>1056.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109" t="s">
+        <v>390</v>
+      </c>
+      <c r="F109" t="s">
+        <v>511</v>
+      </c>
+      <c r="G109" t="s">
+        <v>577</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>1003.27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110" t="s">
+        <v>390</v>
+      </c>
+      <c r="F110" t="s">
+        <v>512</v>
+      </c>
+      <c r="G110" t="s">
+        <v>577</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>999.62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111" t="s">
+        <v>390</v>
+      </c>
+      <c r="F111" t="s">
+        <v>513</v>
+      </c>
+      <c r="G111" t="s">
+        <v>577</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <v>990.0599999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" t="s">
+        <v>352</v>
+      </c>
+      <c r="E112" t="s">
+        <v>386</v>
+      </c>
+      <c r="F112" t="s">
+        <v>514</v>
+      </c>
+      <c r="G112" t="s">
+        <v>577</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
         <v>246</v>
       </c>
-      <c r="F73" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" t="s">
-        <v>338</v>
-      </c>
-      <c r="H73">
+      <c r="D113" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" t="s">
+        <v>386</v>
+      </c>
+      <c r="F113" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" t="s">
+        <v>577</v>
+      </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
+      <c r="I113">
+        <v>866.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" t="s">
+        <v>353</v>
+      </c>
+      <c r="E114" t="s">
+        <v>399</v>
+      </c>
+      <c r="F114" t="s">
+        <v>516</v>
+      </c>
+      <c r="G114" t="s">
+        <v>577</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+      <c r="I114">
+        <v>744.92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" t="s">
+        <v>354</v>
+      </c>
+      <c r="E115" t="s">
+        <v>400</v>
+      </c>
+      <c r="F115" t="s">
+        <v>517</v>
+      </c>
+      <c r="G115" t="s">
+        <v>577</v>
+      </c>
+      <c r="H115">
+        <v>5</v>
+      </c>
+      <c r="I115">
+        <v>544.41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" t="s">
+        <v>355</v>
+      </c>
+      <c r="E116" t="s">
+        <v>389</v>
+      </c>
+      <c r="F116" t="s">
+        <v>518</v>
+      </c>
+      <c r="G116" t="s">
+        <v>577</v>
+      </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
+      <c r="I116">
+        <v>440.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" t="s">
+        <v>356</v>
+      </c>
+      <c r="E117" t="s">
+        <v>390</v>
+      </c>
+      <c r="F117" t="s">
+        <v>519</v>
+      </c>
+      <c r="G117" t="s">
+        <v>577</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>422.43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" t="s">
+        <v>357</v>
+      </c>
+      <c r="E118" t="s">
+        <v>399</v>
+      </c>
+      <c r="F118" t="s">
+        <v>520</v>
+      </c>
+      <c r="G118" t="s">
+        <v>577</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>398.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" t="s">
+        <v>400</v>
+      </c>
+      <c r="F119" t="s">
+        <v>521</v>
+      </c>
+      <c r="G119" t="s">
+        <v>577</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+      <c r="I119">
+        <v>369.62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" t="s">
+        <v>359</v>
+      </c>
+      <c r="E120" t="s">
+        <v>386</v>
+      </c>
+      <c r="F120" t="s">
+        <v>522</v>
+      </c>
+      <c r="G120" t="s">
+        <v>577</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>352.03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" t="s">
+        <v>360</v>
+      </c>
+      <c r="E121" t="s">
+        <v>393</v>
+      </c>
+      <c r="F121" t="s">
+        <v>523</v>
+      </c>
+      <c r="G121" t="s">
+        <v>577</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+      <c r="I121">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>252</v>
+      </c>
+      <c r="D122" t="s">
+        <v>361</v>
+      </c>
+      <c r="E122" t="s">
+        <v>383</v>
+      </c>
+      <c r="F122" t="s">
+        <v>524</v>
+      </c>
+      <c r="G122" t="s">
+        <v>577</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" t="s">
+        <v>362</v>
+      </c>
+      <c r="E123" t="s">
+        <v>374</v>
+      </c>
+      <c r="F123" t="s">
+        <v>525</v>
+      </c>
+      <c r="G123" t="s">
+        <v>578</v>
+      </c>
+      <c r="H123">
         <v>4</v>
       </c>
-      <c r="I73">
-        <v>416.89</v>
+      <c r="I123">
+        <v>12976.31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" t="s">
+        <v>362</v>
+      </c>
+      <c r="E124" t="s">
+        <v>374</v>
+      </c>
+      <c r="F124" t="s">
+        <v>526</v>
+      </c>
+      <c r="G124" t="s">
+        <v>578</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>11899.07</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" t="s">
+        <v>362</v>
+      </c>
+      <c r="E125" t="s">
+        <v>374</v>
+      </c>
+      <c r="F125" t="s">
+        <v>527</v>
+      </c>
+      <c r="G125" t="s">
+        <v>578</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>6937.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" t="s">
+        <v>362</v>
+      </c>
+      <c r="E126" t="s">
+        <v>374</v>
+      </c>
+      <c r="F126" t="s">
+        <v>528</v>
+      </c>
+      <c r="G126" t="s">
+        <v>578</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>6246.57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" t="s">
+        <v>363</v>
+      </c>
+      <c r="E127" t="s">
+        <v>375</v>
+      </c>
+      <c r="F127" t="s">
+        <v>529</v>
+      </c>
+      <c r="G127" t="s">
+        <v>578</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>5859.42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" t="s">
+        <v>362</v>
+      </c>
+      <c r="E128" t="s">
+        <v>374</v>
+      </c>
+      <c r="F128" t="s">
+        <v>530</v>
+      </c>
+      <c r="G128" t="s">
+        <v>578</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>4362.92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" t="s">
+        <v>384</v>
+      </c>
+      <c r="F129" t="s">
+        <v>531</v>
+      </c>
+      <c r="G129" t="s">
+        <v>578</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" t="s">
+        <v>364</v>
+      </c>
+      <c r="E130" t="s">
+        <v>375</v>
+      </c>
+      <c r="F130" t="s">
+        <v>532</v>
+      </c>
+      <c r="G130" t="s">
+        <v>578</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>3696.22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>259</v>
+      </c>
+      <c r="D131" t="s">
+        <v>365</v>
+      </c>
+      <c r="E131" t="s">
+        <v>401</v>
+      </c>
+      <c r="F131" t="s">
+        <v>533</v>
+      </c>
+      <c r="G131" t="s">
+        <v>578</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>3305.24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" t="s">
+        <v>366</v>
+      </c>
+      <c r="E132" t="s">
+        <v>384</v>
+      </c>
+      <c r="F132" t="s">
+        <v>534</v>
+      </c>
+      <c r="G132" t="s">
+        <v>578</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>3219.77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" t="s">
+        <v>367</v>
+      </c>
+      <c r="E133" t="s">
+        <v>401</v>
+      </c>
+      <c r="F133" t="s">
+        <v>535</v>
+      </c>
+      <c r="G133" t="s">
+        <v>578</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>3104.55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" t="s">
+        <v>368</v>
+      </c>
+      <c r="E134" t="s">
+        <v>385</v>
+      </c>
+      <c r="F134" t="s">
+        <v>536</v>
+      </c>
+      <c r="G134" t="s">
+        <v>578</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>2764.16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>263</v>
+      </c>
+      <c r="D135" t="s">
+        <v>362</v>
+      </c>
+      <c r="E135" t="s">
+        <v>374</v>
+      </c>
+      <c r="F135" t="s">
+        <v>537</v>
+      </c>
+      <c r="G135" t="s">
+        <v>578</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>2062.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" t="s">
+        <v>369</v>
+      </c>
+      <c r="E136" t="s">
+        <v>402</v>
+      </c>
+      <c r="F136" t="s">
+        <v>538</v>
+      </c>
+      <c r="G136" t="s">
+        <v>578</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>1852.84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" t="s">
+        <v>268</v>
+      </c>
+      <c r="E137" t="s">
+        <v>379</v>
+      </c>
+      <c r="F137" t="s">
+        <v>539</v>
+      </c>
+      <c r="G137" t="s">
+        <v>578</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>1795.73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" t="s">
+        <v>370</v>
+      </c>
+      <c r="E138" t="s">
+        <v>385</v>
+      </c>
+      <c r="F138" t="s">
+        <v>540</v>
+      </c>
+      <c r="G138" t="s">
+        <v>578</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>1402.96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>267</v>
+      </c>
+      <c r="D139" t="s">
+        <v>371</v>
+      </c>
+      <c r="E139" t="s">
+        <v>403</v>
+      </c>
+      <c r="F139" t="s">
+        <v>541</v>
+      </c>
+      <c r="G139" t="s">
+        <v>578</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
+        <v>844.86</v>
       </c>
     </row>
   </sheetData>
